--- a/medicine/Pharmacie/Tanaisie_commune/Tanaisie_commune.xlsx
+++ b/medicine/Pharmacie/Tanaisie_commune/Tanaisie_commune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tanacetum vulgare
 La Tanaisie commune (Tanacetum vulgare), souvent appelée Tanaisie tout court, est une espèce de plante à fleurs de la famille des Asteraceae, d'origine eurasiatique, très commune en Europe à l'état sauvage.
 En raison d'une teneur élevée en huile essentielle, cette plante est très odorante dès qu'elle est touchée ou froissée. Elle est — à forte dose — toxique et psychoactive.
-Cette odeur est connue, au moins depuis le Moyen Âge[1] pour repousser certains insectes et acariens[2]. Une espèce voisine, la Tanaisie annuelle (Tanacetum annuum), plus spécifique des régions méditerranéennes, a été testée comme source de chamazulène (une molécule antioxydante)[3].
+Cette odeur est connue, au moins depuis le Moyen Âge pour repousser certains insectes et acariens. Une espèce voisine, la Tanaisie annuelle (Tanacetum annuum), plus spécifique des régions méditerranéennes, a été testée comme source de chamazulène (une molécule antioxydante).
 </t>
         </is>
       </c>
@@ -514,10 +526,12 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Noms vulgaires (vulgarisation scientifique) recommandés ou typiques en français : Tanaisie[4],[5],[6],[7], Tanaisie commune[5],[6],[8],[9], au Canada : Tanaisie vulgaire[10],[7],[9],
-Autres noms vulgaires ou noms vernaculaires (langage courant) pouvant désigner éventuellement d'autres espèces : barbotine[5] ou bartoline[6], herbe amère[5],[6], herbe aux vers[5],[6], herbe de saint Marc[5],[6], sent-bon[5],[8], tanacée[5],[6], tenacée[6] ou encore athanase[6]. Et aussi, aux Antilles : amande glaciale[11],[8], menthe glaciale[11] ou sept villes[11] et à la Réunion : absinthe[8].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Noms vulgaires (vulgarisation scientifique) recommandés ou typiques en français : Tanaisie Tanaisie commune au Canada : Tanaisie vulgaire
+Autres noms vulgaires ou noms vernaculaires (langage courant) pouvant désigner éventuellement d'autres espèces : barbotine ou bartoline, herbe amère herbe aux vers herbe de saint Marc sent-bon tanacée tenacée ou encore athanase. Et aussi, aux Antilles : amande glaciale menthe glaciale ou sept villes et à la Réunion : absinthe.</t>
         </is>
       </c>
     </row>
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une grande plante herbacée, vivace, aromatique, aux tiges érigées atteignant un mètre, aux feuilles finement divisées (pennatilobées), aux segments dentés, aux fleurs jaunes disposées en ombelles. Les fleurs sont constituées de fleurons tous identiques, groupées en capitules en forme de boutons.
 Il existe de nombreux chémotypes de tanaisie caractérisés par leur odeur et dénommés d'après leur composant dominant. On trouve par exemple les chémotypes à camphre, à bornéol, à cinéol, etc.
@@ -578,7 +594,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs :
 Type d'inflorescence : corymbe de capitules
@@ -620,9 +638,11 @@
           <t>État des populations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Si l'espèce a disparu des champs subissant une agriculture intensive ou de zones soumises à l'usage de désherbants[12] ou de pâturages où on a voulu l'éradiquer[13], elle est encore très présente sur les friches, bord de routes et de cours d'eau.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si l'espèce a disparu des champs subissant une agriculture intensive ou de zones soumises à l'usage de désherbants ou de pâturages où on a voulu l'éradiquer, elle est encore très présente sur les friches, bord de routes et de cours d'eau.
 </t>
         </is>
       </c>
@@ -653,43 +673,28 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Biochimie
-Depuis 1878, plus de 100 études scientifiques ont porté sur les composants de cette plante[14], avec une centaine de composants identifiés.
-Ainsi retrouve-on dans l'huile essentielle (obtenue par distillation de fleurs et/ou feuilles fraiches[14]) une soixantaine de molécules. Les compositions et teneurs en différents composants peuvent toutefois grandement varier avec les espèces de tanaisies, les souches, variétés (une trentaine de chémotypes différents étaient déjà identifiés en 2018 dans le monde), conditions édaphiques de croissance[3], stade ontogénique (stade de croissance). Ces variations doivent être prises en compte, notamment pour l'huile essentielle à visée pharmaceutique.
+          <t>Biochimie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 1878, plus de 100 études scientifiques ont porté sur les composants de cette plante, avec une centaine de composants identifiés.
+Ainsi retrouve-on dans l'huile essentielle (obtenue par distillation de fleurs et/ou feuilles fraiches) une soixantaine de molécules. Les compositions et teneurs en différents composants peuvent toutefois grandement varier avec les espèces de tanaisies, les souches, variétés (une trentaine de chémotypes différents étaient déjà identifiés en 2018 dans le monde), conditions édaphiques de croissance, stade ontogénique (stade de croissance). Ces variations doivent être prises en compte, notamment pour l'huile essentielle à visée pharmaceutique.
 Elle contient en outre :
 acides maliques, citrique , tartrique , oxalique ;
 tanacétène (qui la rend amère) ;
 flavonoïdes ;
 trans-thuyone ;
 acétate de trans-chrysantényle.
-Des dizaines de ces molécules sont déjà connues comme biologiquement ou pharmacologiquement actives[14]. C'est par exemple le cas des composés suivants :
-camphre (insectifuge)[14] ;
-chamazulène (antioxydant)[3] ;
-1,8-cinéol (insectifuge)[14] ;
-Acétate de bornyle (insectifuge)[14] ;
-p-Cymène (insectifuge)[14] ;
-γ-terpinène (insectifuge)[14].
-Une étude[15] (2015) s'est intéressée aux variations de production d'huile essentielle à cinq stades ontogénétiques différents (rosette, initiation de la tige, bourgeonnement floral, pleine floraison et début de nouaison, avec des teneurs en huile respectivement évaluées à 0,52 ± 0,05 % ; 0,55 ± 0,02 % ; 0,53 ± 0,02 % ; 0,91 ± 0,01 % et 0,73 ± 0,05 %. La quantité la plus élevée d'huile essentielle produite par la tanaisie testée (% poids/poids) correspond au stade de pleine floraison ; sinon, la teneur en huile essentielle est assez similaire aux stades jeune (rosette), de la croissance de la tige et du bourgeonnement floral[15]. Le taux de trans-thuyone est plus élevé (44 % de l'huile essentielle) aux stades de la rosette et de début de nouaison, alors que le taux de camphre est le plus élevé (31,04 %) lors du bourgeonnement floral[15]. Quant au taux d'acétate de trans-chrysantényle, il connaît deux pics : lors de l'initiation de la tige et en pleine floraison[15].
-Usages médicinaux
-Comme la grande et la petite Absinthes ou l'Armoise, c'est une tonique amère (son principe amer est le tanacétène).[réf. nécessaire]
-Ses sommités fleuries ont été utilisées comme vermifuge mais par prudence, cet usage n'est plus recommandé car l'un des constituants de leur huile essentielle à odeur camphrée, la bêta-thuyone (l'un des deux isomères de la Thuyone), est toxique (abortive et neurotoxique épileptisante et convulsivante, et provocant des sensations de désinhibition avec à doses très élevées d'éventuelles hallucinations)[16].[source détournée]
-On utilise donc plutôt des feuilles, préparées en infusion, à relativement faible doses[17] étaient réputées avoir des propriétés toniques, antispasmodiques et fébrifuges.[source insuffisante]
-Durant la deuxième moitié du XXe siècle, une décoction de cette plante (dite Tansy Oil) était utilisée par les femmes (notamment au Royaume-Uni) pour provoquer l'arrivée des règles, généralement pour interrompre une grossesse.[réf. nécessaire]
-Bioinsecticide
-Cette plante (botaniquement proche des pyrèthres), est également insectifuge, éloignant par son odeur les fourmis, les mites, les puces, les punaises, les otiorhynques, le doryphore prédateur de la pomme de terre[14], la Tordeuse à bandes obliques, papillon nord-américain dont la chenille fait parfois des ravages sur les rosiers et de nombreux arbres fruitiers de la famille des Rosaceae (tels que pommiers, poiriers, pêchers)[18], la pyrale Acrobasis advenella[19], le coléoptère Aethina tumida[20], le Bombyx disparate (Lymantria dispar, devenu localement envahissant et considéré comme un ravageur problématique dans certains forêts feuillues de l'hémisphère nord, chênaies notamment) , etc. On l'emploie alors mise en sachets de feuilles et d'inflorescences séchées. La plante fraiche peut aussi être utilisée directement, par exemple comme répulsif contre les tiques, on peut se frotter les poignets, la nuque, les chevilles avec une feuille, dont l'odeur repousse tiques et moustiques[21]. Des extraits aqueux et divers composants de l'huile essentielle se sont montrés actifs contre divers insectes[14].
-En arboriculture une pulvérisérisation d'infusion de fleurs peut être utilisée contre les pucerons et les fourmis qui les protègent[22].
-En viticulture, cette plante affecte négativement la reproduction de l'Eudémis de la vigne (Lobesia botrana), un lépidoptère ravageur de la vigne[23].
-Usages alimentaires
-Cette plante est citée dans le capitulaire De Villis datant du début du IXe siècle, parmi les plantes potagères et aromatiques recommandées.
-En raison de son parfum camphré puissant et de son goût amer, elle était utilisée à petite dose comme épice. Une recette du Liber cure cocorum en propose quelques feuilles hachées pour aromatiser l’omelette[24].
-Son infusion aromatisait des sirops, liqueurs, limonades et vins.
-Ses feuilles (fraîches ou séchées) aromatisaient pâtisseries (pudding de Pâques en Angleterre) et accompagnaient les viandes[25].
-Teinture
-La fleur de tanaisie commune est utilisée pour teindre les cheveux en jaune afin d'obtenir une coloration blonde éclatante ou une coloration kaki[26].
-En apiculture
-La plante séchée est utilisée par certains apiculteurs comme combustible pour l'enfumoir[27]. Elle aurait l'avantage d'avoir un effet calmant sur les abeilles et l'odeur de la fumée produite serait sans incidence sur le goût du miel (contrairement à l'usage du carton par exemple).
-Plante ornementale
-C'est aussi une plante ornementale des jardins privés ou publics, notamment la variété crispum aux feuilles frisées et très découpées. Quand le milieu lui convient bien peut être localement envahissante[28].
+Des dizaines de ces molécules sont déjà connues comme biologiquement ou pharmacologiquement actives. C'est par exemple le cas des composés suivants :
+camphre (insectifuge) ;
+chamazulène (antioxydant) ;
+1,8-cinéol (insectifuge) ;
+Acétate de bornyle (insectifuge) ;
+p-Cymène (insectifuge) ;
+γ-terpinène (insectifuge).
+Une étude (2015) s'est intéressée aux variations de production d'huile essentielle à cinq stades ontogénétiques différents (rosette, initiation de la tige, bourgeonnement floral, pleine floraison et début de nouaison, avec des teneurs en huile respectivement évaluées à 0,52 ± 0,05 % ; 0,55 ± 0,02 % ; 0,53 ± 0,02 % ; 0,91 ± 0,01 % et 0,73 ± 0,05 %. La quantité la plus élevée d'huile essentielle produite par la tanaisie testée (% poids/poids) correspond au stade de pleine floraison ; sinon, la teneur en huile essentielle est assez similaire aux stades jeune (rosette), de la croissance de la tige et du bourgeonnement floral. Le taux de trans-thuyone est plus élevé (44 % de l'huile essentielle) aux stades de la rosette et de début de nouaison, alors que le taux de camphre est le plus élevé (31,04 %) lors du bourgeonnement floral. Quant au taux d'acétate de trans-chrysantényle, il connaît deux pics : lors de l'initiation de la tige et en pleine floraison.
 </t>
         </is>
       </c>
@@ -715,12 +720,21 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Mise en culture</t>
+          <t>Usage</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Au début des années 2000, pour répondre aux besoins de la chimie verte et des industries pharmaceutique et des biopesticides, des tests de culture avec différents régimes de récolte ont concerné plusieurs génotypes de tanaisie collectés au Canada (Richters et Goldsticks) et en Norvège (Steinvikholmen, Alvdal et Brumunddal), en recherchant à la fois une production élevée de biomasse et un bon rendement en huile essentielle de qualité[29]. D'importantes variations de rendements en huile essentielle ont été constatés (42,1 à 44,5 L/ha pour les génotypes canadiens contre 'seulement' 21,0 à 38,4 L/ha pour les génotypes norvégiens testés. Les premières expériences laissent penser que « les génotypes de tanaisie pourraient être regroupés dans les chémotypes suivants : cinéole−acétate de bornyle/bornéol−α-terpinéol) et le chémotype distinct Richters, avec des concentrations moyennes d'acétate de (E)-chrysanthényle &gt; 40 % dans l'HE des feuilles et des fleurs »[29].
+          <t>Usages médicinaux</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme la grande et la petite Absinthes ou l'Armoise, c'est une tonique amère (son principe amer est le tanacétène).[réf. nécessaire]
+Ses sommités fleuries ont été utilisées comme vermifuge mais par prudence, cet usage n'est plus recommandé car l'un des constituants de leur huile essentielle à odeur camphrée, la bêta-thuyone (l'un des deux isomères de la Thuyone), est toxique (abortive et neurotoxique épileptisante et convulsivante, et provocant des sensations de désinhibition avec à doses très élevées d'éventuelles hallucinations).[source détournée]
+On utilise donc plutôt des feuilles, préparées en infusion, à relativement faible doses étaient réputées avoir des propriétés toniques, antispasmodiques et fébrifuges.[source insuffisante]
+Durant la deuxième moitié du XXe siècle, une décoction de cette plante (dite Tansy Oil) était utilisée par les femmes (notamment au Royaume-Uni) pour provoquer l'arrivée des règles, généralement pour interrompre une grossesse.[réf. nécessaire]
 </t>
         </is>
       </c>
@@ -746,10 +760,235 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Usage</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bioinsecticide</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante (botaniquement proche des pyrèthres), est également insectifuge, éloignant par son odeur les fourmis, les mites, les puces, les punaises, les otiorhynques, le doryphore prédateur de la pomme de terre, la Tordeuse à bandes obliques, papillon nord-américain dont la chenille fait parfois des ravages sur les rosiers et de nombreux arbres fruitiers de la famille des Rosaceae (tels que pommiers, poiriers, pêchers), la pyrale Acrobasis advenella, le coléoptère Aethina tumida, le Bombyx disparate (Lymantria dispar, devenu localement envahissant et considéré comme un ravageur problématique dans certains forêts feuillues de l'hémisphère nord, chênaies notamment) , etc. On l'emploie alors mise en sachets de feuilles et d'inflorescences séchées. La plante fraiche peut aussi être utilisée directement, par exemple comme répulsif contre les tiques, on peut se frotter les poignets, la nuque, les chevilles avec une feuille, dont l'odeur repousse tiques et moustiques. Des extraits aqueux et divers composants de l'huile essentielle se sont montrés actifs contre divers insectes.
+En arboriculture une pulvérisérisation d'infusion de fleurs peut être utilisée contre les pucerons et les fourmis qui les protègent.
+En viticulture, cette plante affecte négativement la reproduction de l'Eudémis de la vigne (Lobesia botrana), un lépidoptère ravageur de la vigne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tanaisie_commune</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tanaisie_commune</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Usages alimentaires</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est citée dans le capitulaire De Villis datant du début du IXe siècle, parmi les plantes potagères et aromatiques recommandées.
+En raison de son parfum camphré puissant et de son goût amer, elle était utilisée à petite dose comme épice. Une recette du Liber cure cocorum en propose quelques feuilles hachées pour aromatiser l’omelette.
+Son infusion aromatisait des sirops, liqueurs, limonades et vins.
+Ses feuilles (fraîches ou séchées) aromatisaient pâtisseries (pudding de Pâques en Angleterre) et accompagnaient les viandes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tanaisie_commune</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tanaisie_commune</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Teinture</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fleur de tanaisie commune est utilisée pour teindre les cheveux en jaune afin d'obtenir une coloration blonde éclatante ou une coloration kaki.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tanaisie_commune</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tanaisie_commune</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>En apiculture</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante séchée est utilisée par certains apiculteurs comme combustible pour l'enfumoir. Elle aurait l'avantage d'avoir un effet calmant sur les abeilles et l'odeur de la fumée produite serait sans incidence sur le goût du miel (contrairement à l'usage du carton par exemple).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tanaisie_commune</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tanaisie_commune</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Plante ornementale</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est aussi une plante ornementale des jardins privés ou publics, notamment la variété crispum aux feuilles frisées et très découpées. Quand le milieu lui convient bien peut être localement envahissante.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Tanaisie_commune</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tanaisie_commune</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Mise en culture</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au début des années 2000, pour répondre aux besoins de la chimie verte et des industries pharmaceutique et des biopesticides, des tests de culture avec différents régimes de récolte ont concerné plusieurs génotypes de tanaisie collectés au Canada (Richters et Goldsticks) et en Norvège (Steinvikholmen, Alvdal et Brumunddal), en recherchant à la fois une production élevée de biomasse et un bon rendement en huile essentielle de qualité. D'importantes variations de rendements en huile essentielle ont été constatés (42,1 à 44,5 L/ha pour les génotypes canadiens contre 'seulement' 21,0 à 38,4 L/ha pour les génotypes norvégiens testés. Les premières expériences laissent penser que « les génotypes de tanaisie pourraient être regroupés dans les chémotypes suivants : cinéole−acétate de bornyle/bornéol−α-terpinéol) et le chémotype distinct Richters, avec des concentrations moyennes d'acétate de (E)-chrysanthényle &gt; 40 % dans l'HE des feuilles et des fleurs ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Tanaisie_commune</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tanaisie_commune</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Chrysanthemum vulgare (L.) Bernh.
 Tanacetum boreale Fisch. ex DC.</t>
